--- a/trunk/project docs/parrel performance.xlsx
+++ b/trunk/project docs/parrel performance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,25 +16,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No of files</t>
   </si>
   <si>
-    <t>with pararell</t>
+    <t>With out paraphrase time from indexing to comparison</t>
   </si>
   <si>
-    <t>without pararell</t>
+    <t>Test configurations</t>
   </si>
   <si>
-    <t>With out paraphrase time from indexing to comparison</t>
+    <t>Processor: Intel Core 2 Duo CPU @ 2.20 GHz</t>
+  </si>
+  <si>
+    <t>Memory:2 GB</t>
+  </si>
+  <si>
+    <t>Operating System: 32 Bit</t>
+  </si>
+  <si>
+    <t>Time Taken with pararell loops(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Taken Without pararell loops(s) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +57,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -71,26 +91,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -100,7 +138,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>with pararell</c:v>
+                  <c:v>Time Taken with pararell loops(s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -133,20 +171,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.173999999999999</c:v>
+                  <c:v>8.9309999999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.824999999999999</c:v>
+                  <c:v>19.021000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.335000000000001</c:v>
+                  <c:v>25.231000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.898000000000003</c:v>
+                  <c:v>32.451000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -157,7 +196,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>without pararell</c:v>
+                  <c:v>Time Taken Without pararell loops(s) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -204,35 +243,52 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="69560192"/>
-        <c:axId val="69561728"/>
+        <c:smooth val="0"/>
+        <c:axId val="136319360"/>
+        <c:axId val="136320896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69560192"/>
+        <c:axId val="136319360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69561728"/>
+        <c:crossAx val="136320896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69561728"/>
+        <c:axId val="136320896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69560192"/>
+        <c:crossAx val="136319360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -241,8 +297,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -362,6 +421,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -396,6 +456,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,82 +632,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="15.75">
+    <row r="1" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="3:8">
-      <c r="C2" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>25</v>
       </c>
       <c r="D3">
-        <v>11.173999999999999</v>
+        <v>8.9309999999999992</v>
       </c>
       <c r="E3">
         <v>12.494999999999999</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4">
-        <v>20.824999999999999</v>
+        <v>19.021000000000001</v>
       </c>
       <c r="E4">
         <v>22.597999999999999</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>75</v>
       </c>
       <c r="D5">
-        <v>26.335000000000001</v>
+        <v>25.231000000000002</v>
       </c>
       <c r="E5">
         <v>28.225000000000001</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6">
-        <v>33.898000000000003</v>
+        <v>32.451000000000001</v>
       </c>
       <c r="E6">
         <v>36.872</v>
       </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -656,24 +741,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
